--- a/pred_ohlcv/54_21/2020-01-24 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 STRAT ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>124098.81965787</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>123891.33365787</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>129963.21645787</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>130665.96045787</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>65455.37755786999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>65456.67755787</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>64672.61695787</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>64542.12665787</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-15613.10274213</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-10877.99585984</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-10877.99585984</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-75040.96955984</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-76302.62465984</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-75557.01035984</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-75557.01035984</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-79728.65000470002</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-79840.23550470002</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-80880.23550470002</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-80880.23540470001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-80878.93540470001</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-51441.90697702001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-51505.44697702001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-63936.41207702002</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-64411.45377702001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-64162.20081963001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-60311.28671865001</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-61000.29081865001</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-60676.85784271001</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-60568.82544271001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-60568.82544271001</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-59838.45314271001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 STRAT ohlcv.xlsx
@@ -3148,7 +3148,7 @@
         <v>-75040.96955984</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-76302.62465984</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-75830.34475984001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-79728.65000470002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-79840.23550470002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-80880.23550470002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-80880.23540470001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-56499.25617702001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-56494.85617702001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-56740.46607702001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-61004.75497702001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-61257.21107702002</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-59667.21107702002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-59667.21107702002</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-60637.21107702002</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-60637.21107702002</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-60637.21107702002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-62397.21107702002</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-62224.61961963001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-62002.98331865001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-62089.88331865001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-59468.58331865001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-59561.72821865001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-60311.28671865001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-60311.28671865001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-61000.29081865001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-61127.85784271001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-60676.85784271001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-60568.82544271001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-60568.82544271001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-59838.45314271001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-58690.88224271001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-58730.88224271001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
